--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientesv.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientesv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83573C5E-279E-461C-A21E-CDE951504171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C957A-BB73-4C81-B05E-3D5C70EE0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1335" windowWidth="18000" windowHeight="9270" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="2415" yWindow="2640" windowWidth="18000" windowHeight="9270" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedientes" sheetId="1" r:id="rId1"/>
@@ -224,10 +224,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,16 +677,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -736,19 +736,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientesv.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientesv.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C957A-BB73-4C81-B05E-3D5C70EE0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131EA4C-C960-42E4-AC5D-DAA5777AEF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2640" windowWidth="18000" windowHeight="9270" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Solicitudes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Expedientes">Expedientes!$A$4:$G$7</definedName>
-    <definedName name="Expedientes_Estudios">Expedientes!$A$5:$G$6</definedName>
+    <definedName name="Expedientes">Solicitudes!$A$4:$G$7</definedName>
+    <definedName name="Expedientes_Estudios">Solicitudes!$A$5:$G$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -224,10 +224,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,31 +664,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,37 +734,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>

--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientesv.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientesv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131EA4C-C960-42E4-AC5D-DAA5777AEF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F2ED6D-6589-4237-A6D7-0B2304B6E283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>{{item.Compañia}}</t>
+  </si>
+  <si>
+    <t>{{item.Clave}}</t>
   </si>
   <si>
     <t>{{item.Entrega}}</t>
@@ -115,13 +118,7 @@
     </r>
   </si>
   <si>
-    <t>{{item.Area}}</t>
-  </si>
-  <si>
-    <t>{{item.Status}}</t>
-  </si>
-  <si>
-    <t>{{item.Study}}</t>
+    <t>{{item.NombreEstatus}}</t>
   </si>
 </sst>
 </file>
@@ -661,7 +658,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,7 +675,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -737,19 +734,19 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
